--- a/doc/handeling.xlsx
+++ b/doc/handeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\login\loginpage\DMC-main\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9FEFC5-590F-4CB5-AACF-796EE4F16810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54FE8C5-C08C-4624-B5E4-C88B7184393E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{116C2F64-D79B-4AE1-AFC8-E04D60169754}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t xml:space="preserve">handeling case Dmsc middel ware </t>
   </si>
@@ -89,14 +89,66 @@
     <t>REACT_APP_URL_REPORT_03_FILE</t>
   </si>
   <si>
-    <t>remark : Env for call</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sucess</t>
+  </si>
+  <si>
+    <t>remark : Env for call validate  data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remark : create log info error </t>
+  </si>
+  <si>
+    <t>EXPRESS_APP_LOGIN</t>
+  </si>
+  <si>
+    <t>{status,header,body}</t>
+  </si>
+  <si>
+    <t>data log  info icoming</t>
+  </si>
+  <si>
+    <t>data logfo :</t>
+  </si>
+  <si>
+    <t>data log error</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>2023-01-16 10:34:52 info: {"status":200,"header":"application/json;UTF-8","body":body}</t>
+  </si>
+  <si>
+    <t>2023-01-16 11:07:17 error: {"loginstatus":"false","Message":error.mesage,"ErrorStack":error.stack"}</t>
+  </si>
+  <si>
+    <t>EXPRESS_APP_REPORT01</t>
+  </si>
+  <si>
+    <r>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-01-16 11:38:01 error: {"codeError":"ECONNRESET","Message":error.stack,"ErrorStack":error.stack}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ip agent browser </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +171,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +215,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -214,22 +307,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,9 +414,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -555,189 +766,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AAAAD6-82C8-4573-B316-9CA02F705948}">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="111.140625" customWidth="1"/>
+    <col min="4" max="4" width="122.140625" customWidth="1"/>
+    <col min="5" max="5" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="F6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="F7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="6"/>
+      <c r="F8" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="7"/>
+      <c r="F9" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="H4:K7"/>
     <mergeCell ref="E4:E9"/>
+    <mergeCell ref="A10:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
